--- a/extractosBancarios/01022023/PATTY/2017-01022023-01022023.xlsx
+++ b/extractosBancarios/01022023/PATTY/2017-01022023-01022023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,12 +10,25 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE0B429-9FEF-4F36-8F5F-C673DEAB17AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovimientosPorFecha - 02_02_202" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,7 +649,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,21 +937,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>44958</v>
       </c>
@@ -1008,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>44958</v>
       </c>
@@ -1043,7 +1056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>44958</v>
       </c>
@@ -1078,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>44958</v>
       </c>
@@ -1113,7 +1126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>44958</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>44958</v>
       </c>
